--- a/medicine/Mort/Les_Choses_de_la_vie/Les_Choses_de_la_vie.xlsx
+++ b/medicine/Mort/Les_Choses_de_la_vie/Les_Choses_de_la_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Choses de la vie est un film franco-italo-suisse réalisé par Claude Sautet, sorti en 1970.
 Il s'agit d'une adaptation du roman du même nom Les Choses de la vie de Paul Guimard publié en 1967.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre (Michel Piccoli), architecte d'une quarantaine d'années, est victime d'un grave accident de la route : roulant vite, il percute une bétaillère qui a calé au milieu d'une intersection. Éjecté du véhicule qui prend feu, blessé et dans un coma vigile, au bord de la route, il se remémore son passé récent, notamment les deux femmes qui comptent dans sa vie : son épouse Catherine (Lea Massari) dont il est séparé et avec qui il a eu un fils Bertrand (Gérard Lartigau), et Hélène (Romy Schneider), avec qui sa relation amoureuse est à un tournant.
 Il revoit sa vie en accéléré et réalise alors l'importance de ces multiples petites choses de l'existence, « les choses de la vie », ces joies et ces peines qui constituent l'essentiel de toute une vie. L'état de Pierre constitue la trame du film : sans aucune conscience de sa mort imminente, et naïvement obsédé par sa « fatigue », son monologue intérieur tourne sans cesse autour de la nécessité de ne surtout pas laisser traîner une lettre qui donnerait un tout autre sens à son rapport aux autres. Cette missive ne parvient finalement pas à sa destinataire : à l’hôpital sont remises à l'épouse de Pierre ses dernières affaires dont la lettre. Ayant pris connaissance de son contenu, Catherine prend la décision de la déchirer, accomplissant ainsi sans le savoir le vœu ultime de son défunt mari.
@@ -544,14 +558,16 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre français et québécois : Les Choses de la vie[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre français et québécois : Les Choses de la vie
 Titre italien : L'amante
 Réalisation : Claude Sautet
 Scénario : Paul Guimard,
 adapté par Claude Sautet, Sandro Continenza et Jean-Loup Dabadie,
-d'après le roman éponyme de Paul Guimard Les Choses de la vie[2],[Note 1]
+d'après le roman éponyme de Paul Guimard Les Choses de la vie,[Note 1]
 Musique :
 Philippe Sarde[Note 2]
 Antonio Vivaldi (concerto pour flûte traversière et orchestre, RV 439 : La Notte/La Nuit)
@@ -561,7 +577,7 @@
 Son : René Longuet, Pierre Davoust, Jean Nény, Alex Pront
 Montage : Jacqueline Thiédot
 Production : Raymond Danon, Jean Bolvary et Roland Girard
-Sociétés de production[3] :
+Sociétés de production :
 France : Lira Films et Sonocam
 Italie : Fida Cinematografica
 Sociétés de distribution :
@@ -570,20 +586,20 @@
 Belgique : Belga Films
 Pays de production :  France,  Italie,  Suisse
 Langue originale : français
-Format[4] : couleur (Eastmancolor) - 35 mm - 1,66:1 (VistaVision) - son Mono
+Format : couleur (Eastmancolor) - 35 mm - 1,66:1 (VistaVision) - son Mono
 Genre : drame, romance
 Durée :  89 minutes
 Tournage : 19 juin - 13 août 1969
-Dates de sortie[5] :
+Dates de sortie :
 France : 13 mars 1970 (sortie nationale) ; 10 mai 1970 (Festival de Cannes) ; 24 décembre 2014 (réédition - version restaurée)
-Québec : 13 mars 1970[1]
+Québec : 13 mars 1970
 Italie : 18 avril 1970
 Suisse : non disponible
 Belgique : 19 juin 1970
-Classification[6] :
-France : tous publics[7]
-Belgique : tous publics (Alle Leeftijden)[8]
-Québec : tous publics (G - General Rating)[1]</t>
+Classification :
+France : tous publics
+Belgique : tous publics (Alle Leeftijden)
+Québec : tous publics (G - General Rating)</t>
         </is>
       </c>
     </row>
@@ -611,7 +627,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Michel Piccoli : Pierre Bérard
@@ -678,12 +696,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse
+          <t>Genèse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Selon ce que Claude Sautet précise : 
-« En octobre 1968, [Jean-Loup Dabadie] me demande mon avis sur un traitement qu'il vient d'écrire, d'après un livre de Paul Guimard, Les Choses de la vie. Je le lis et le trouve remarquable. [...] J'y vois enfin l'occasion de pouvoir traiter des problèmes de couple et surtout un accident de voiture à peu près impossible à faire. Et devant lequel beaucoup de cinéastes ont renoncé avant moi (parmi lesquels Claude Chabrol et Alain Cavalier). [...] Initialement le contrat comportait les noms d'Yves Montand et d'Annie Girardot. Je ne les voyais ni l'un ni l'autre dans les personnages. Je demande qu'on barre ce paragraphe et je pense tout de suite à Michel Piccoli et à Léa Massari [...][9]. »
-C'est Pierre Granier-Deferre, en montrant à Claude Sautet des rushes du film La Piscine, qui convainquit le réalisateur de retenir Romy Schneider pour le rôle d'Hélène, grâce à la sensualité qu'elle y dégage[10].
-Tournage
-Le tournage se déroule du 19 juin 1969[11] à août 1969[12]
+« En octobre 1968, [Jean-Loup Dabadie] me demande mon avis sur un traitement qu'il vient d'écrire, d'après un livre de Paul Guimard, Les Choses de la vie. Je le lis et le trouve remarquable. [...] J'y vois enfin l'occasion de pouvoir traiter des problèmes de couple et surtout un accident de voiture à peu près impossible à faire. Et devant lequel beaucoup de cinéastes ont renoncé avant moi (parmi lesquels Claude Chabrol et Alain Cavalier). [...] Initialement le contrat comportait les noms d'Yves Montand et d'Annie Girardot. Je ne les voyais ni l'un ni l'autre dans les personnages. Je demande qu'on barre ce paragraphe et je pense tout de suite à Michel Piccoli et à Léa Massari [...]. »
+C'est Pierre Granier-Deferre, en montrant à Claude Sautet des rushes du film La Piscine, qui convainquit le réalisateur de retenir Romy Schneider pour le rôle d'Hélène, grâce à la sensualité qu'elle y dégage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage se déroule du 19 juin 1969 à août 1969
 Charente-Maritime
 Île de Ré
 La Rochelle (Vieux Port)
@@ -693,50 +752,9 @@
 Septeuil
 Neauphle-le-Château
 Thoiry
-Le tournage de la séquence de l'accident dure dix jours. Elle est coordonnée et réalisée par le cascadeur Gérard Streiff[13]. Le lieu de l'accident, la pointe du Coq, se trouve au lieu-dit Villarceaux, sur la commune de Thoiry, dans les Yvelines, aux croisements de la rue de la mare Agrard, de la rue de Villarceaux et de la D119 (rue des Vignettes). Le décor est tout à fait fictif, fabriqué par la DDE à la demande de Claude Sautet[réf. souhaitée] (le carrefour tel qu'il apparaît dans la scène n'est pas reconnaissable sur les lieux actuels). Les panneaux au carrefour indiquent des lieux inexistants sur place (La Noue, Thuil), le panneau quatre faces en béton au premier plan précisant le département "Sarthe" en rouge. Les pommiers eux-mêmes ont été implantés pour les besoins de la scène.
+Le tournage de la séquence de l'accident dure dix jours. Elle est coordonnée et réalisée par le cascadeur Gérard Streiff. Le lieu de l'accident, la pointe du Coq, se trouve au lieu-dit Villarceaux, sur la commune de Thoiry, dans les Yvelines, aux croisements de la rue de la mare Agrard, de la rue de Villarceaux et de la D119 (rue des Vignettes). Le décor est tout à fait fictif, fabriqué par la DDE à la demande de Claude Sautet[réf. souhaitée] (le carrefour tel qu'il apparaît dans la scène n'est pas reconnaissable sur les lieux actuels). Les panneaux au carrefour indiquent des lieux inexistants sur place (La Noue, Thuil), le panneau quatre faces en béton au premier plan précisant le département "Sarthe" en rouge. Les pommiers eux-mêmes ont été implantés pour les besoins de la scène.
 La voiture conduite par Michel Piccoli est une Alfa Romeo Giulietta Sprint de 1959. L'ambulance emmenant Pierre à l'hôpital change de plaque d'immatriculation entre deux plans.
-Musique
-C'est la première collaboration de Claude Sautet avec Philippe Sarde, qui signera ensuite la musique de tous ses films à part Un cœur en hiver.
-La Chanson d'Hélène, thème du film, est signé par Sarde, mais Claude Sautet n'aimant pas la chanson, elle ne figure pas dans le film. C'est à la radio qu'on entend alors les voix de Romy Schneider et Michel Piccoli, qui la font connaître[14].
-L'album de la bande originale du film a été publié par Philips (LP 6311 021)[15].
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Choses_de_la_vie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Choses_de_la_vie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Distinctions</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Entre 1969 et 1971, Les Choses de la vie a été sélectionné à plusieurs reprises et a remporté une récompense[16],[17].
-Récompense
-Prix Louis Delluc 1969 décerné à Claude Sautet
-Nominations et sélections
-Festival de Cannes 1970 : sélection officielle, en compétition pour la Palme d'or pour Claude Sautet[16],[17]
-Turkish Film Critics Association (SIYAD) Awards 1971 : meilleur film étranger (8e place)
-Sélection
-Festival de Cannes 1970 : sélection officielle, en compétition.</t>
         </is>
       </c>
     </row>
@@ -761,10 +779,193 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la première collaboration de Claude Sautet avec Philippe Sarde, qui signera ensuite la musique de tous ses films à part Un cœur en hiver.
+La Chanson d'Hélène, thème du film, est signé par Sarde, mais Claude Sautet n'aimant pas la chanson, elle ne figure pas dans le film. C'est à la radio qu'on entend alors les voix de Romy Schneider et Michel Piccoli, qui la font connaître.
+L'album de la bande originale du film a été publié par Philips (LP 6311 021).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1969 et 1971, Les Choses de la vie a été sélectionné à plusieurs reprises et a remporté une récompense,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Louis Delluc 1969 décerné à Claude Sautet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 1970 : sélection officielle, en compétition pour la Palme d'or pour Claude Sautet,
+Turkish Film Critics Association (SIYAD) Awards 1971 : meilleur film étranger (8e place)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 1970 : sélection officielle, en compétition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Choses_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film inspire une chanson interprétée par Frida Boccara, L'Année où Piccoli jouait Les Choses de la vie, sur un thème de Telemann. Il fait également l'objet d'un remake américain en 1994 réalisé par Mark Rydell et intitulé Intersection, avec notamment Richard Gere et Sharon Stone.
 </t>
